--- a/Registers/Precios.xlsx
+++ b/Registers/Precios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Código</t>
   </si>
@@ -35,7 +35,31 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>Descripción de prueba</t>
+    <t>Descripción de prueba 0</t>
+  </si>
+  <si>
+    <t>Descripción de prueba 1</t>
+  </si>
+  <si>
+    <t>Descripción de prueba 2</t>
+  </si>
+  <si>
+    <t>Descripción de prueba 3</t>
+  </si>
+  <si>
+    <t>Descripción de prueba 4</t>
+  </si>
+  <si>
+    <t>Descripción de prueba 5</t>
+  </si>
+  <si>
+    <t>Descripción de prueba 6</t>
+  </si>
+  <si>
+    <t>Descripción de prueba 7</t>
+  </si>
+  <si>
+    <t>Descripción de prueba 8</t>
   </si>
 </sst>
 </file>
@@ -411,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -444,6 +468,94 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>900000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
